--- a/output7/working.xlsx
+++ b/output7/working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F1505-D317-40D6-A050-469749CEEF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602C9A2D-F1A2-49BE-B33C-B790A9B26134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -6761,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>

--- a/output7/working.xlsx
+++ b/output7/working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602C9A2D-F1A2-49BE-B33C-B790A9B26134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F074850-0532-46AE-8E2A-59BCCD847BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -6761,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>

--- a/output7/working.xlsx
+++ b/output7/working.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F074850-0532-46AE-8E2A-59BCCD847BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C5EF12-8717-458F-8BF6-7BE1371A127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-23970" yWindow="2460" windowWidth="22575" windowHeight="12555" activeTab="2" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="1" r:id="rId2"/>
-    <sheet name="工作表1" sheetId="16" r:id="rId3"/>
-    <sheet name="台羅拼音" sheetId="15" r:id="rId4"/>
-    <sheet name="十五音" sheetId="14" r:id="rId5"/>
-    <sheet name="閩拼方案" sheetId="12" r:id="rId6"/>
-    <sheet name="135拼音-聲調符號" sheetId="3" r:id="rId7"/>
-    <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId8"/>
-    <sheet name="轉調助記圖" sheetId="5" r:id="rId9"/>
+    <sheet name="標音字庫" sheetId="17" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="16" r:id="rId4"/>
+    <sheet name="台羅拼音" sheetId="15" r:id="rId5"/>
+    <sheet name="十五音" sheetId="14" r:id="rId6"/>
+    <sheet name="閩拼方案" sheetId="12" r:id="rId7"/>
+    <sheet name="135拼音-聲調符號" sheetId="3" r:id="rId8"/>
+    <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId9"/>
+    <sheet name="轉調助記圖" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$3</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="638">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2576,6 +2577,18 @@
   </si>
   <si>
     <t>sing1</t>
+  </si>
+  <si>
+    <t>漢字</t>
+  </si>
+  <si>
+    <t>台語音標</t>
+  </si>
+  <si>
+    <t>總數</t>
+  </si>
+  <si>
+    <t>校正音標</t>
   </si>
 </sst>
 </file>
@@ -3395,7 +3408,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3706,6 +3719,9 @@
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="82" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -3722,31 +3738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6757,11 +6748,28 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E996769-E0A0-48CC-8CA4-0FCF71044A6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -6820,157 +6828,157 @@
     <row r="3" spans="2:22" s="64" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="63"/>
       <c r="C3" s="84"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
       <c r="O3" s="81"/>
       <c r="P3" s="81"/>
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
-      <c r="V3" s="107" t="s">
+      <c r="V3" s="108" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="105" t="s">
         <v>561</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="105" t="s">
         <v>562</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="105" t="s">
         <v>563</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="105" t="s">
         <v>564</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="105" t="s">
         <v>565</v>
       </c>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="105" t="s">
         <v>566</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="105" t="s">
         <v>567</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="L4" s="119" t="s">
+      <c r="L4" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="M4" s="119" t="s">
+      <c r="M4" s="105" t="s">
         <v>570</v>
       </c>
-      <c r="N4" s="119"/>
+      <c r="N4" s="105"/>
       <c r="O4" s="105"/>
       <c r="P4" s="105"/>
       <c r="Q4" s="105"/>
       <c r="R4" s="105"/>
       <c r="S4" s="91"/>
-      <c r="V4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="113" t="s">
+      <c r="K5" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="L5" s="113" t="s">
+      <c r="L5" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="M5" s="113" t="s">
+      <c r="M5" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="N5" s="113" t="str">
+      <c r="N5" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
       <c r="S5" s="92"/>
-      <c r="V5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="106" t="s">
         <v>335</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="106" t="s">
         <v>336</v>
       </c>
-      <c r="G6" s="120" t="s">
+      <c r="G6" s="106" t="s">
         <v>478</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="106" t="s">
         <v>338</v>
       </c>
-      <c r="J6" s="120" t="s">
+      <c r="J6" s="106" t="s">
         <v>339</v>
       </c>
-      <c r="K6" s="120" t="s">
+      <c r="K6" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="L6" s="120" t="s">
+      <c r="L6" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="M6" s="120" t="s">
+      <c r="M6" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="N6" s="120"/>
+      <c r="N6" s="106"/>
       <c r="O6" s="106"/>
       <c r="P6" s="106"/>
       <c r="Q6" s="106"/>
       <c r="R6" s="106"/>
       <c r="S6" s="93"/>
-      <c r="V6" s="108"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
       <c r="C7" s="86"/>
-      <c r="D7" s="118"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
@@ -6986,11 +6994,11 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="108"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
-      <c r="D8" s="119"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="105"/>
       <c r="F8" s="105"/>
       <c r="G8" s="105"/>
@@ -7006,39 +7014,39 @@
       <c r="Q8" s="105"/>
       <c r="R8" s="105"/>
       <c r="S8" s="91"/>
-      <c r="V8" s="108"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="113" t="str">
+      <c r="D9" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
-      <c r="V9" s="108"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
-      <c r="D10" s="120"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="106"/>
@@ -7054,556 +7062,556 @@
       <c r="Q10" s="106"/>
       <c r="R10" s="106"/>
       <c r="S10" s="94"/>
-      <c r="V10" s="108"/>
+      <c r="V10" s="109"/>
     </row>
     <row r="11" spans="2:22" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
       <c r="C11" s="87"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="V11" s="108"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="105" t="s">
         <v>572</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="105" t="s">
         <v>574</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="105" t="s">
         <v>576</v>
       </c>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="105" t="s">
         <v>577</v>
       </c>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119" t="s">
+      <c r="J12" s="105"/>
+      <c r="K12" s="105" t="s">
         <v>578</v>
       </c>
-      <c r="L12" s="119" t="s">
+      <c r="L12" s="105" t="s">
         <v>579</v>
       </c>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119" t="s">
+      <c r="M12" s="105"/>
+      <c r="N12" s="105" t="s">
         <v>581</v>
       </c>
-      <c r="O12" s="119" t="s">
+      <c r="O12" s="105" t="s">
         <v>582</v>
       </c>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119" t="s">
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105" t="s">
         <v>583</v>
       </c>
-      <c r="R12" s="119" t="s">
+      <c r="R12" s="105" t="s">
         <v>584</v>
       </c>
       <c r="S12" s="91"/>
-      <c r="V12" s="108"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="G13" s="113" t="s">
+      <c r="G13" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="H13" s="113" t="s">
+      <c r="H13" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="J13" s="113" t="s">
+      <c r="J13" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="K13" s="113" t="s">
+      <c r="K13" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="L13" s="113" t="s">
+      <c r="L13" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="M13" s="113" t="s">
+      <c r="M13" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="113" t="s">
+      <c r="N13" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="O13" s="113" t="s">
+      <c r="O13" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="P13" s="113" t="s">
+      <c r="P13" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="Q13" s="113" t="s">
+      <c r="Q13" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="R13" s="113" t="s">
+      <c r="R13" s="97" t="s">
         <v>221</v>
       </c>
       <c r="S13" s="92"/>
-      <c r="V13" s="108"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="G14" s="120" t="s">
+      <c r="G14" s="106" t="s">
         <v>575</v>
       </c>
-      <c r="H14" s="120" t="s">
+      <c r="H14" s="106" t="s">
         <v>347</v>
       </c>
-      <c r="I14" s="120" t="s">
+      <c r="I14" s="106" t="s">
         <v>348</v>
       </c>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120" t="s">
+      <c r="J14" s="106"/>
+      <c r="K14" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="L14" s="120" t="s">
+      <c r="L14" s="106" t="s">
         <v>580</v>
       </c>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120" t="s">
+      <c r="M14" s="106"/>
+      <c r="N14" s="106" t="s">
         <v>351</v>
       </c>
-      <c r="O14" s="120" t="s">
+      <c r="O14" s="106" t="s">
         <v>352</v>
       </c>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120" t="s">
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106" t="s">
         <v>353</v>
       </c>
-      <c r="R14" s="120" t="s">
+      <c r="R14" s="106" t="s">
         <v>354</v>
       </c>
       <c r="S14" s="94"/>
-      <c r="V14" s="108"/>
+      <c r="V14" s="109"/>
     </row>
     <row r="15" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
       <c r="C15" s="88"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="V15" s="108"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="V15" s="109"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="105" t="s">
         <v>586</v>
       </c>
-      <c r="F16" s="119" t="s">
+      <c r="F16" s="105" t="s">
         <v>587</v>
       </c>
-      <c r="G16" s="119" t="s">
+      <c r="G16" s="105" t="s">
         <v>588</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="105" t="s">
         <v>565</v>
       </c>
-      <c r="I16" s="119" t="s">
+      <c r="I16" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="J16" s="119" t="s">
+      <c r="J16" s="105" t="s">
         <v>590</v>
       </c>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119" t="s">
+      <c r="K16" s="105"/>
+      <c r="L16" s="105" t="s">
         <v>591</v>
       </c>
-      <c r="M16" s="119" t="s">
+      <c r="M16" s="105" t="s">
         <v>592</v>
       </c>
-      <c r="N16" s="119" t="s">
+      <c r="N16" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="O16" s="119" t="s">
+      <c r="O16" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="P16" s="119" t="s">
+      <c r="P16" s="105" t="s">
         <v>565</v>
       </c>
-      <c r="Q16" s="119" t="s">
+      <c r="Q16" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="R16" s="119" t="s">
+      <c r="R16" s="105" t="s">
         <v>590</v>
       </c>
       <c r="S16" s="91"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="109"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E17" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="F17" s="113" t="s">
+      <c r="F17" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="G17" s="113" t="s">
+      <c r="G17" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="113" t="s">
+      <c r="H17" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="I17" s="113" t="s">
+      <c r="I17" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="J17" s="113" t="s">
+      <c r="J17" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="K17" s="113" t="s">
+      <c r="K17" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="L17" s="113" t="s">
+      <c r="L17" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="M17" s="113" t="s">
+      <c r="M17" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="N17" s="113" t="s">
+      <c r="N17" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="O17" s="113" t="s">
+      <c r="O17" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="P17" s="113" t="s">
+      <c r="P17" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="Q17" s="113" t="s">
+      <c r="Q17" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="R17" s="113" t="s">
+      <c r="R17" s="97" t="s">
         <v>226</v>
       </c>
       <c r="S17" s="92"/>
-      <c r="V17" s="108"/>
+      <c r="V17" s="109"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="106" t="s">
         <v>373</v>
       </c>
-      <c r="E18" s="120" t="s">
+      <c r="E18" s="106" t="s">
         <v>356</v>
       </c>
-      <c r="F18" s="120" t="s">
+      <c r="F18" s="106" t="s">
         <v>357</v>
       </c>
-      <c r="G18" s="120" t="s">
+      <c r="G18" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="H18" s="120" t="s">
+      <c r="H18" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="I18" s="120" t="s">
+      <c r="I18" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="J18" s="120" t="s">
+      <c r="J18" s="106" t="s">
         <v>360</v>
       </c>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120" t="s">
+      <c r="K18" s="106"/>
+      <c r="L18" s="106" t="s">
         <v>361</v>
       </c>
-      <c r="M18" s="120" t="s">
+      <c r="M18" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="N18" s="120" t="s">
+      <c r="N18" s="106" t="s">
         <v>363</v>
       </c>
-      <c r="O18" s="120" t="s">
+      <c r="O18" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="P18" s="120" t="s">
+      <c r="P18" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="Q18" s="120" t="s">
+      <c r="Q18" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="R18" s="120" t="s">
+      <c r="R18" s="106" t="s">
         <v>360</v>
       </c>
       <c r="S18" s="94"/>
-      <c r="V18" s="108"/>
+      <c r="V18" s="109"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
       <c r="C19" s="88"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="V19" s="108"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="V19" s="109"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119" t="s">
+      <c r="D20" s="105"/>
+      <c r="E20" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="105" t="s">
         <v>594</v>
       </c>
-      <c r="G20" s="119" t="s">
+      <c r="G20" s="105" t="s">
         <v>595</v>
       </c>
-      <c r="H20" s="119" t="s">
+      <c r="H20" s="105" t="s">
         <v>565</v>
       </c>
-      <c r="I20" s="119" t="s">
+      <c r="I20" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="J20" s="119" t="s">
+      <c r="J20" s="105" t="s">
         <v>590</v>
       </c>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119" t="s">
+      <c r="K20" s="105"/>
+      <c r="L20" s="105" t="s">
         <v>596</v>
       </c>
-      <c r="M20" s="119" t="s">
+      <c r="M20" s="105" t="s">
         <v>597</v>
       </c>
-      <c r="N20" s="119" t="s">
+      <c r="N20" s="105" t="s">
         <v>598</v>
       </c>
-      <c r="O20" s="119" t="s">
+      <c r="O20" s="105" t="s">
         <v>599</v>
       </c>
-      <c r="P20" s="119" t="s">
+      <c r="P20" s="105" t="s">
         <v>600</v>
       </c>
-      <c r="Q20" s="119" t="s">
+      <c r="Q20" s="105" t="s">
         <v>601</v>
       </c>
-      <c r="R20" s="119"/>
+      <c r="R20" s="105"/>
       <c r="S20" s="91"/>
-      <c r="V20" s="108"/>
+      <c r="V20" s="109"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="G21" s="113" t="s">
+      <c r="G21" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="113" t="s">
+      <c r="H21" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="I21" s="113" t="s">
+      <c r="I21" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="113" t="s">
+      <c r="J21" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="L21" s="113" t="s">
+      <c r="L21" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="M21" s="114" t="s">
+      <c r="M21" s="101" t="s">
         <v>560</v>
       </c>
-      <c r="N21" s="113" t="s">
+      <c r="N21" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="O21" s="113" t="s">
+      <c r="O21" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="P21" s="113" t="s">
+      <c r="P21" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="Q21" s="113" t="s">
+      <c r="Q21" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="R21" s="113" t="s">
+      <c r="R21" s="97" t="s">
         <v>216</v>
       </c>
       <c r="S21" s="92"/>
-      <c r="V21" s="108"/>
+      <c r="V21" s="109"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120" t="s">
+      <c r="D22" s="106"/>
+      <c r="E22" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="F22" s="120" t="s">
+      <c r="F22" s="106" t="s">
         <v>364</v>
       </c>
-      <c r="G22" s="120" t="s">
+      <c r="G22" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="H22" s="120" t="s">
+      <c r="H22" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="I22" s="120" t="s">
+      <c r="I22" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="J22" s="120" t="s">
+      <c r="J22" s="106" t="s">
         <v>360</v>
       </c>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120" t="s">
+      <c r="K22" s="106"/>
+      <c r="L22" s="106" t="s">
         <v>366</v>
       </c>
-      <c r="M22" s="120" t="s">
+      <c r="M22" s="106" t="s">
         <v>355</v>
       </c>
-      <c r="N22" s="120" t="s">
+      <c r="N22" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="O22" s="120" t="s">
+      <c r="O22" s="106" t="s">
         <v>368</v>
       </c>
-      <c r="P22" s="120" t="s">
+      <c r="P22" s="106" t="s">
         <v>369</v>
       </c>
-      <c r="Q22" s="120" t="s">
+      <c r="Q22" s="106" t="s">
         <v>370</v>
       </c>
-      <c r="R22" s="120"/>
+      <c r="R22" s="106"/>
       <c r="S22" s="94"/>
-      <c r="V22" s="109"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
       <c r="C23" s="88"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
       <c r="Q23" s="81"/>
       <c r="R23" s="81"/>
       <c r="V23" s="68"/>
     </row>
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="105" t="s">
         <v>600</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="105" t="s">
         <v>601</v>
       </c>
-      <c r="F24" s="119" t="s">
+      <c r="F24" s="105" t="s">
         <v>602</v>
       </c>
-      <c r="G24" s="119" t="s">
+      <c r="G24" s="105" t="s">
         <v>603</v>
       </c>
-      <c r="H24" s="119" t="s">
+      <c r="H24" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="I24" s="119" t="s">
+      <c r="I24" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="J24" s="119" t="s">
+      <c r="J24" s="105" t="s">
         <v>588</v>
       </c>
-      <c r="K24" s="119" t="s">
+      <c r="K24" s="105" t="s">
         <v>605</v>
       </c>
-      <c r="L24" s="119" t="s">
+      <c r="L24" s="105" t="s">
         <v>565</v>
       </c>
-      <c r="M24" s="119" t="s">
+      <c r="M24" s="105" t="s">
         <v>606</v>
       </c>
-      <c r="N24" s="119" t="s">
+      <c r="N24" s="105" t="s">
         <v>608</v>
       </c>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
       <c r="Q24" s="82"/>
       <c r="R24" s="82"/>
       <c r="S24" s="91"/>
@@ -7614,89 +7622,89 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="113" t="s">
+      <c r="D25" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="113" t="s">
+      <c r="F25" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="113" t="s">
+      <c r="G25" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="H25" s="113" t="s">
+      <c r="H25" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="I25" s="113" t="s">
+      <c r="I25" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="J25" s="113" t="s">
+      <c r="J25" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="K25" s="113" t="s">
+      <c r="K25" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="113" t="s">
+      <c r="L25" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="M25" s="113" t="s">
+      <c r="M25" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="N25" s="113" t="s">
+      <c r="N25" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="O25" s="113" t="s">
+      <c r="O25" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="P25" s="113" t="str">
+      <c r="P25" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
       <c r="S25" s="92"/>
       <c r="V25" s="60"/>
     </row>
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="106" t="s">
         <v>369</v>
       </c>
-      <c r="E26" s="120" t="s">
+      <c r="E26" s="106" t="s">
         <v>370</v>
       </c>
-      <c r="F26" s="120" t="s">
+      <c r="F26" s="106" t="s">
         <v>371</v>
       </c>
-      <c r="G26" s="120" t="s">
+      <c r="G26" s="106" t="s">
         <v>604</v>
       </c>
-      <c r="H26" s="120" t="s">
+      <c r="H26" s="106" t="s">
         <v>373</v>
       </c>
-      <c r="I26" s="120" t="s">
+      <c r="I26" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="J26" s="120" t="s">
+      <c r="J26" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="K26" s="120" t="s">
+      <c r="K26" s="106" t="s">
         <v>374</v>
       </c>
-      <c r="L26" s="120" t="s">
+      <c r="L26" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="M26" s="120" t="s">
+      <c r="M26" s="106" t="s">
         <v>607</v>
       </c>
-      <c r="N26" s="120" t="s">
+      <c r="N26" s="106" t="s">
         <v>376</v>
       </c>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
       <c r="Q26" s="83"/>
       <c r="R26" s="83"/>
       <c r="S26" s="94"/>
@@ -7709,7 +7717,7 @@
     <row r="27" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="63"/>
       <c r="C27" s="88"/>
-      <c r="D27" s="118"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
@@ -7732,7 +7740,7 @@
     </row>
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
-      <c r="D28" s="119"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -7759,25 +7767,25 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="113" t="str">
+      <c r="D29" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
       <c r="S29" s="92"/>
       <c r="U29" s="67" t="str">
         <f t="shared" si="0"/>
@@ -7787,7 +7795,7 @@
     </row>
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
-      <c r="D30" s="120"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="83"/>
       <c r="F30" s="83"/>
       <c r="G30" s="83"/>
@@ -7812,21 +7820,21 @@
     <row r="31" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="63"/>
       <c r="C31" s="88"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
       <c r="U31" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7835,47 +7843,47 @@
     </row>
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="E32" s="119" t="s">
+      <c r="E32" s="105" t="s">
         <v>581</v>
       </c>
-      <c r="F32" s="119" t="s">
+      <c r="F32" s="105" t="s">
         <v>582</v>
       </c>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119" t="s">
+      <c r="G32" s="105"/>
+      <c r="H32" s="105" t="s">
         <v>586</v>
       </c>
-      <c r="I32" s="119" t="s">
+      <c r="I32" s="105" t="s">
         <v>602</v>
       </c>
-      <c r="J32" s="119" t="s">
+      <c r="J32" s="105" t="s">
         <v>578</v>
       </c>
-      <c r="K32" s="119" t="s">
+      <c r="K32" s="105" t="s">
         <v>579</v>
       </c>
-      <c r="L32" s="119" t="s">
+      <c r="L32" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="M32" s="119" t="s">
+      <c r="M32" s="105" t="s">
         <v>590</v>
       </c>
-      <c r="N32" s="119" t="s">
+      <c r="N32" s="105" t="s">
         <v>609</v>
       </c>
-      <c r="O32" s="119" t="s">
+      <c r="O32" s="105" t="s">
         <v>610</v>
       </c>
-      <c r="P32" s="119" t="s">
+      <c r="P32" s="105" t="s">
         <v>565</v>
       </c>
-      <c r="Q32" s="119" t="s">
+      <c r="Q32" s="105" t="s">
         <v>612</v>
       </c>
-      <c r="R32" s="119" t="s">
+      <c r="R32" s="105" t="s">
         <v>613</v>
       </c>
       <c r="S32" s="91"/>
@@ -7890,49 +7898,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="113" t="s">
+      <c r="F33" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="G33" s="113" t="s">
+      <c r="G33" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="H33" s="113" t="s">
+      <c r="H33" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="I33" s="113" t="s">
+      <c r="I33" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="J33" s="113" t="s">
+      <c r="J33" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="K33" s="113" t="s">
+      <c r="K33" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="L33" s="113" t="s">
+      <c r="L33" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="M33" s="113" t="s">
+      <c r="M33" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="N33" s="113" t="s">
+      <c r="N33" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="O33" s="113" t="s">
+      <c r="O33" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="P33" s="113" t="s">
+      <c r="P33" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="Q33" s="113" t="s">
+      <c r="Q33" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="R33" s="113" t="s">
+      <c r="R33" s="97" t="s">
         <v>240</v>
       </c>
       <c r="S33" s="92"/>
@@ -7940,47 +7948,47 @@
     </row>
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="E34" s="120" t="s">
+      <c r="E34" s="106" t="s">
         <v>351</v>
       </c>
-      <c r="F34" s="120" t="s">
+      <c r="F34" s="106" t="s">
         <v>352</v>
       </c>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120" t="s">
+      <c r="G34" s="106"/>
+      <c r="H34" s="106" t="s">
         <v>356</v>
       </c>
-      <c r="I34" s="120" t="s">
+      <c r="I34" s="106" t="s">
         <v>371</v>
       </c>
-      <c r="J34" s="120" t="s">
+      <c r="J34" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="K34" s="120" t="s">
+      <c r="K34" s="106" t="s">
         <v>580</v>
       </c>
-      <c r="L34" s="120" t="s">
+      <c r="L34" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="M34" s="120" t="s">
+      <c r="M34" s="106" t="s">
         <v>360</v>
       </c>
-      <c r="N34" s="120" t="s">
+      <c r="N34" s="106" t="s">
         <v>377</v>
       </c>
-      <c r="O34" s="120" t="s">
+      <c r="O34" s="106" t="s">
         <v>611</v>
       </c>
-      <c r="P34" s="120" t="s">
+      <c r="P34" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="Q34" s="120" t="s">
+      <c r="Q34" s="106" t="s">
         <v>379</v>
       </c>
-      <c r="R34" s="120" t="s">
+      <c r="R34" s="106" t="s">
         <v>380</v>
       </c>
       <c r="S34" s="94"/>
@@ -7989,62 +7997,62 @@
     <row r="35" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="63"/>
       <c r="C35" s="88"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
       <c r="V35" s="68"/>
     </row>
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119" t="s">
+      <c r="D36" s="105"/>
+      <c r="E36" s="105" t="s">
         <v>614</v>
       </c>
-      <c r="F36" s="119" t="s">
+      <c r="F36" s="105" t="s">
         <v>615</v>
       </c>
-      <c r="G36" s="119" t="s">
+      <c r="G36" s="105" t="s">
         <v>616</v>
       </c>
-      <c r="H36" s="119" t="s">
+      <c r="H36" s="105" t="s">
         <v>617</v>
       </c>
-      <c r="I36" s="119" t="s">
+      <c r="I36" s="105" t="s">
         <v>618</v>
       </c>
-      <c r="J36" s="119" t="s">
+      <c r="J36" s="105" t="s">
         <v>619</v>
       </c>
-      <c r="K36" s="119"/>
-      <c r="L36" s="119" t="s">
+      <c r="K36" s="105"/>
+      <c r="L36" s="105" t="s">
         <v>596</v>
       </c>
-      <c r="M36" s="119" t="s">
+      <c r="M36" s="105" t="s">
         <v>597</v>
       </c>
-      <c r="N36" s="119" t="s">
+      <c r="N36" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="O36" s="119" t="s">
+      <c r="O36" s="105" t="s">
         <v>620</v>
       </c>
-      <c r="P36" s="119" t="s">
+      <c r="P36" s="105" t="s">
         <v>621</v>
       </c>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="119"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
       <c r="S36" s="91"/>
       <c r="V36" s="60"/>
     </row>
@@ -8053,49 +8061,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="113" t="s">
+      <c r="D37" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="113" t="s">
+      <c r="F37" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="G37" s="113" t="s">
+      <c r="G37" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="H37" s="113" t="s">
+      <c r="H37" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="113" t="s">
+      <c r="I37" s="97" t="s">
         <v>547</v>
       </c>
-      <c r="J37" s="113" t="s">
+      <c r="J37" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="K37" s="113" t="s">
+      <c r="K37" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="L37" s="113" t="s">
+      <c r="L37" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="M37" s="113" t="s">
+      <c r="M37" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="N37" s="113" t="s">
+      <c r="N37" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="O37" s="113" t="s">
+      <c r="O37" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="P37" s="113" t="s">
+      <c r="P37" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="Q37" s="113" t="s">
+      <c r="Q37" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="R37" s="113" t="str">
+      <c r="R37" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8105,50 +8113,50 @@
     </row>
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120" t="s">
+      <c r="D38" s="106"/>
+      <c r="E38" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="F38" s="120" t="s">
+      <c r="F38" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="G38" s="120" t="s">
+      <c r="G38" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="H38" s="120" t="s">
+      <c r="H38" s="106" t="s">
         <v>384</v>
       </c>
-      <c r="I38" s="120" t="s">
+      <c r="I38" s="106" t="s">
         <v>385</v>
       </c>
-      <c r="J38" s="120" t="s">
+      <c r="J38" s="106" t="s">
         <v>386</v>
       </c>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120" t="s">
+      <c r="K38" s="106"/>
+      <c r="L38" s="106" t="s">
         <v>366</v>
       </c>
-      <c r="M38" s="120" t="s">
+      <c r="M38" s="106" t="s">
         <v>355</v>
       </c>
-      <c r="N38" s="120" t="s">
+      <c r="N38" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="O38" s="120" t="s">
+      <c r="O38" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="P38" s="120" t="s">
+      <c r="P38" s="106" t="s">
         <v>389</v>
       </c>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="106"/>
       <c r="S38" s="94"/>
       <c r="V38" s="60"/>
     </row>
     <row r="39" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="63"/>
       <c r="C39" s="88"/>
-      <c r="D39" s="118"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="81"/>
       <c r="F39" s="81"/>
       <c r="G39" s="81"/>
@@ -8167,7 +8175,7 @@
     </row>
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
-      <c r="D40" s="119"/>
+      <c r="D40" s="105"/>
       <c r="E40" s="105"/>
       <c r="F40" s="105"/>
       <c r="G40" s="105"/>
@@ -8190,31 +8198,31 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="113" t="str">
+      <c r="D41" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="97"/>
       <c r="S41" s="92"/>
       <c r="V41" s="60"/>
     </row>
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
-      <c r="D42" s="120"/>
+      <c r="D42" s="106"/>
       <c r="E42" s="106"/>
       <c r="F42" s="106"/>
       <c r="G42" s="106"/>
@@ -8235,66 +8243,66 @@
     <row r="43" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="63"/>
       <c r="C43" s="88"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
       <c r="V43" s="68"/>
     </row>
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
-      <c r="D44" s="119" t="s">
+      <c r="D44" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="E44" s="119" t="s">
+      <c r="E44" s="105" t="s">
         <v>622</v>
       </c>
-      <c r="F44" s="119" t="s">
+      <c r="F44" s="105" t="s">
         <v>598</v>
       </c>
-      <c r="G44" s="119" t="s">
+      <c r="G44" s="105" t="s">
         <v>623</v>
       </c>
-      <c r="H44" s="119" t="s">
+      <c r="H44" s="105" t="s">
         <v>562</v>
       </c>
-      <c r="I44" s="119" t="s">
+      <c r="I44" s="105" t="s">
         <v>624</v>
       </c>
-      <c r="J44" s="119" t="s">
+      <c r="J44" s="105" t="s">
         <v>625</v>
       </c>
-      <c r="K44" s="119" t="s">
+      <c r="K44" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="L44" s="119" t="s">
+      <c r="L44" s="105" t="s">
         <v>624</v>
       </c>
-      <c r="M44" s="119" t="s">
+      <c r="M44" s="105" t="s">
         <v>627</v>
       </c>
-      <c r="N44" s="119" t="s">
+      <c r="N44" s="105" t="s">
         <v>565</v>
       </c>
-      <c r="O44" s="119" t="s">
+      <c r="O44" s="105" t="s">
         <v>628</v>
       </c>
-      <c r="P44" s="119" t="s">
+      <c r="P44" s="105" t="s">
         <v>629</v>
       </c>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="119" t="s">
+      <c r="Q44" s="105"/>
+      <c r="R44" s="105" t="s">
         <v>571</v>
       </c>
       <c r="S44" s="91"/>
@@ -8305,49 +8313,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="113" t="s">
+      <c r="D45" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="113" t="s">
+      <c r="F45" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="G45" s="113" t="s">
+      <c r="G45" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="113" t="s">
+      <c r="H45" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="I45" s="113" t="s">
+      <c r="I45" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="J45" s="113" t="s">
+      <c r="J45" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="K45" s="113" t="s">
+      <c r="K45" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="L45" s="113" t="s">
+      <c r="L45" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="M45" s="113" t="s">
+      <c r="M45" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="N45" s="113" t="s">
+      <c r="N45" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="O45" s="113" t="s">
+      <c r="O45" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="P45" s="113" t="s">
+      <c r="P45" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="Q45" s="113" t="s">
+      <c r="Q45" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="R45" s="113" t="s">
+      <c r="R45" s="97" t="s">
         <v>212</v>
       </c>
       <c r="S45" s="92"/>
@@ -8355,47 +8363,47 @@
     </row>
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
-      <c r="D46" s="120" t="s">
+      <c r="D46" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="E46" s="120" t="s">
+      <c r="E46" s="106" t="s">
         <v>390</v>
       </c>
-      <c r="F46" s="120" t="s">
+      <c r="F46" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="G46" s="120" t="s">
+      <c r="G46" s="106" t="s">
         <v>391</v>
       </c>
-      <c r="H46" s="120" t="s">
+      <c r="H46" s="106" t="s">
         <v>335</v>
       </c>
-      <c r="I46" s="120" t="s">
+      <c r="I46" s="106" t="s">
         <v>392</v>
       </c>
-      <c r="J46" s="120" t="s">
+      <c r="J46" s="106" t="s">
         <v>626</v>
       </c>
-      <c r="K46" s="120" t="s">
+      <c r="K46" s="106" t="s">
         <v>373</v>
       </c>
-      <c r="L46" s="120" t="s">
+      <c r="L46" s="106" t="s">
         <v>392</v>
       </c>
-      <c r="M46" s="120" t="s">
+      <c r="M46" s="106" t="s">
         <v>393</v>
       </c>
-      <c r="N46" s="120" t="s">
+      <c r="N46" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="O46" s="120" t="s">
+      <c r="O46" s="106" t="s">
         <v>394</v>
       </c>
-      <c r="P46" s="120" t="s">
+      <c r="P46" s="106" t="s">
         <v>395</v>
       </c>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120" t="s">
+      <c r="Q46" s="106"/>
+      <c r="R46" s="106" t="s">
         <v>343</v>
       </c>
       <c r="S46" s="94"/>
@@ -8404,64 +8412,64 @@
     <row r="47" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="63"/>
       <c r="C47" s="88"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="118"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
       <c r="V47" s="68"/>
     </row>
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
-      <c r="D48" s="119" t="s">
+      <c r="D48" s="105" t="s">
         <v>581</v>
       </c>
-      <c r="E48" s="119" t="s">
+      <c r="E48" s="105" t="s">
         <v>582</v>
       </c>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119" t="s">
+      <c r="F48" s="105"/>
+      <c r="G48" s="105" t="s">
         <v>586</v>
       </c>
-      <c r="H48" s="119" t="s">
+      <c r="H48" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="I48" s="119" t="s">
+      <c r="I48" s="105" t="s">
         <v>578</v>
       </c>
-      <c r="J48" s="119" t="s">
+      <c r="J48" s="105" t="s">
         <v>579</v>
       </c>
-      <c r="K48" s="119" t="s">
+      <c r="K48" s="105" t="s">
         <v>614</v>
       </c>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119" t="s">
+      <c r="L48" s="105"/>
+      <c r="M48" s="105" t="s">
         <v>614</v>
       </c>
-      <c r="N48" s="119" t="s">
+      <c r="N48" s="105" t="s">
         <v>615</v>
       </c>
-      <c r="O48" s="119" t="s">
+      <c r="O48" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="P48" s="119" t="s">
+      <c r="P48" s="105" t="s">
         <v>590</v>
       </c>
-      <c r="Q48" s="119" t="s">
+      <c r="Q48" s="105" t="s">
         <v>565</v>
       </c>
-      <c r="R48" s="119" t="s">
+      <c r="R48" s="105" t="s">
         <v>630</v>
       </c>
       <c r="S48" s="91"/>
@@ -8472,49 +8480,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="113" t="s">
+      <c r="D49" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="F49" s="113" t="s">
+      <c r="F49" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="G49" s="113" t="s">
+      <c r="G49" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="H49" s="113" t="s">
+      <c r="H49" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="I49" s="113" t="s">
+      <c r="I49" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="J49" s="113" t="s">
+      <c r="J49" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="K49" s="113" t="s">
+      <c r="K49" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="L49" s="113" t="s">
+      <c r="L49" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M49" s="113" t="s">
+      <c r="M49" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="N49" s="113" t="s">
+      <c r="N49" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="O49" s="113" t="s">
+      <c r="O49" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="113" t="s">
+      <c r="P49" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="Q49" s="113" t="s">
+      <c r="Q49" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="R49" s="113" t="s">
+      <c r="R49" s="97" t="s">
         <v>251</v>
       </c>
       <c r="S49" s="92"/>
@@ -8522,45 +8530,45 @@
     </row>
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
-      <c r="D50" s="120" t="s">
+      <c r="D50" s="106" t="s">
         <v>351</v>
       </c>
-      <c r="E50" s="120" t="s">
+      <c r="E50" s="106" t="s">
         <v>352</v>
       </c>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120" t="s">
+      <c r="F50" s="106"/>
+      <c r="G50" s="106" t="s">
         <v>356</v>
       </c>
-      <c r="H50" s="120" t="s">
+      <c r="H50" s="106" t="s">
         <v>373</v>
       </c>
-      <c r="I50" s="120" t="s">
+      <c r="I50" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="J50" s="120" t="s">
+      <c r="J50" s="106" t="s">
         <v>580</v>
       </c>
-      <c r="K50" s="120" t="s">
+      <c r="K50" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120" t="s">
+      <c r="L50" s="106"/>
+      <c r="M50" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="N50" s="120" t="s">
+      <c r="N50" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="O50" s="120" t="s">
+      <c r="O50" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="P50" s="120" t="s">
+      <c r="P50" s="106" t="s">
         <v>360</v>
       </c>
-      <c r="Q50" s="120" t="s">
+      <c r="Q50" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="R50" s="120" t="s">
+      <c r="R50" s="106" t="s">
         <v>396</v>
       </c>
       <c r="S50" s="94"/>
@@ -8569,17 +8577,17 @@
     <row r="51" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="63"/>
       <c r="C51" s="88"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
       <c r="O51" s="81"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
@@ -8588,35 +8596,35 @@
     </row>
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
-      <c r="D52" s="119" t="s">
+      <c r="D52" s="105" t="s">
         <v>631</v>
       </c>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119" t="s">
+      <c r="E52" s="105"/>
+      <c r="F52" s="105" t="s">
         <v>596</v>
       </c>
-      <c r="G52" s="119" t="s">
+      <c r="G52" s="105" t="s">
         <v>597</v>
       </c>
-      <c r="H52" s="119" t="s">
+      <c r="H52" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="I52" s="119" t="s">
+      <c r="I52" s="105" t="s">
         <v>588</v>
       </c>
-      <c r="J52" s="119" t="s">
+      <c r="J52" s="105" t="s">
         <v>624</v>
       </c>
-      <c r="K52" s="119" t="s">
+      <c r="K52" s="105" t="s">
         <v>565</v>
       </c>
-      <c r="L52" s="119" t="s">
+      <c r="L52" s="105" t="s">
         <v>632</v>
       </c>
-      <c r="M52" s="119" t="s">
+      <c r="M52" s="105" t="s">
         <v>633</v>
       </c>
-      <c r="N52" s="119"/>
+      <c r="N52" s="105"/>
       <c r="O52" s="105"/>
       <c r="P52" s="105"/>
       <c r="Q52" s="105"/>
@@ -8629,77 +8637,77 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="113" t="s">
+      <c r="D53" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="F53" s="113" t="s">
+      <c r="F53" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="G53" s="113" t="s">
+      <c r="G53" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="H53" s="113" t="s">
+      <c r="H53" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="I53" s="113" t="s">
+      <c r="I53" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="J53" s="113" t="s">
+      <c r="J53" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="K53" s="113" t="s">
+      <c r="K53" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="L53" s="113" t="s">
+      <c r="L53" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="M53" s="113" t="s">
+      <c r="M53" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="N53" s="113" t="s">
+      <c r="N53" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="O53" s="113"/>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="113"/>
-      <c r="R53" s="113"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="97"/>
       <c r="S53" s="92"/>
       <c r="V53" s="60"/>
     </row>
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
-      <c r="D54" s="120" t="s">
+      <c r="D54" s="106" t="s">
         <v>397</v>
       </c>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120" t="s">
+      <c r="E54" s="106"/>
+      <c r="F54" s="106" t="s">
         <v>366</v>
       </c>
-      <c r="G54" s="120" t="s">
+      <c r="G54" s="106" t="s">
         <v>355</v>
       </c>
-      <c r="H54" s="120" t="s">
+      <c r="H54" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="I54" s="120" t="s">
+      <c r="I54" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="J54" s="120" t="s">
+      <c r="J54" s="106" t="s">
         <v>392</v>
       </c>
-      <c r="K54" s="120" t="s">
+      <c r="K54" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="L54" s="120" t="s">
+      <c r="L54" s="106" t="s">
         <v>398</v>
       </c>
-      <c r="M54" s="120" t="s">
+      <c r="M54" s="106" t="s">
         <v>399</v>
       </c>
-      <c r="N54" s="120"/>
+      <c r="N54" s="106"/>
       <c r="O54" s="106"/>
       <c r="P54" s="106"/>
       <c r="Q54" s="106"/>
@@ -8752,23 +8760,23 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="113" t="s">
+      <c r="D57" s="97" t="s">
         <v>555</v>
       </c>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="113"/>
-      <c r="M57" s="113"/>
-      <c r="N57" s="113"/>
-      <c r="O57" s="113"/>
-      <c r="P57" s="113"/>
-      <c r="Q57" s="113"/>
-      <c r="R57" s="113"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="97"/>
+      <c r="M57" s="97"/>
+      <c r="N57" s="97"/>
+      <c r="O57" s="97"/>
+      <c r="P57" s="97"/>
+      <c r="Q57" s="97"/>
+      <c r="R57" s="97"/>
       <c r="S57" s="92"/>
       <c r="V57" s="60"/>
     </row>
@@ -8837,21 +8845,21 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="113"/>
-      <c r="L61" s="113"/>
-      <c r="M61" s="113"/>
-      <c r="N61" s="113"/>
-      <c r="O61" s="113"/>
-      <c r="P61" s="113"/>
-      <c r="Q61" s="113"/>
-      <c r="R61" s="113"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="97"/>
+      <c r="M61" s="97"/>
+      <c r="N61" s="97"/>
+      <c r="O61" s="97"/>
+      <c r="P61" s="97"/>
+      <c r="Q61" s="97"/>
+      <c r="R61" s="97"/>
       <c r="S61" s="92"/>
       <c r="V61" s="60"/>
     </row>
@@ -8920,21 +8928,21 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="113"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="113"/>
-      <c r="O65" s="113"/>
-      <c r="P65" s="113"/>
-      <c r="Q65" s="113"/>
-      <c r="R65" s="113"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="97"/>
+      <c r="M65" s="97"/>
+      <c r="N65" s="97"/>
+      <c r="O65" s="97"/>
+      <c r="P65" s="97"/>
+      <c r="Q65" s="97"/>
+      <c r="R65" s="97"/>
       <c r="S65" s="92"/>
       <c r="V65" s="60"/>
     </row>
@@ -9003,21 +9011,21 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="113"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="113"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="113"/>
-      <c r="R69" s="113"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="97"/>
+      <c r="M69" s="97"/>
+      <c r="N69" s="97"/>
+      <c r="O69" s="97"/>
+      <c r="P69" s="97"/>
+      <c r="Q69" s="97"/>
+      <c r="R69" s="97"/>
       <c r="S69" s="92"/>
       <c r="V69" s="60"/>
     </row>
@@ -9086,21 +9094,21 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="113"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="113"/>
-      <c r="P73" s="113"/>
-      <c r="Q73" s="113"/>
-      <c r="R73" s="113"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="97"/>
+      <c r="L73" s="97"/>
+      <c r="M73" s="97"/>
+      <c r="N73" s="97"/>
+      <c r="O73" s="97"/>
+      <c r="P73" s="97"/>
+      <c r="Q73" s="97"/>
+      <c r="R73" s="97"/>
       <c r="S73" s="92"/>
       <c r="V73" s="60"/>
     </row>
@@ -9169,21 +9177,21 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="113"/>
-      <c r="E77" s="113"/>
-      <c r="F77" s="113"/>
-      <c r="G77" s="115"/>
-      <c r="H77" s="113"/>
-      <c r="I77" s="113"/>
-      <c r="J77" s="113"/>
-      <c r="K77" s="113"/>
-      <c r="L77" s="113"/>
-      <c r="M77" s="113"/>
-      <c r="N77" s="113"/>
-      <c r="O77" s="113"/>
-      <c r="P77" s="113"/>
-      <c r="Q77" s="113"/>
-      <c r="R77" s="113"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="97"/>
+      <c r="K77" s="97"/>
+      <c r="L77" s="97"/>
+      <c r="M77" s="97"/>
+      <c r="N77" s="97"/>
+      <c r="O77" s="97"/>
+      <c r="P77" s="97"/>
+      <c r="Q77" s="97"/>
+      <c r="R77" s="97"/>
       <c r="S77" s="92"/>
       <c r="V77" s="60"/>
     </row>
@@ -9252,21 +9260,21 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="113"/>
-      <c r="E81" s="113"/>
-      <c r="F81" s="113"/>
-      <c r="G81" s="113"/>
-      <c r="H81" s="113"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="113"/>
-      <c r="K81" s="113"/>
-      <c r="L81" s="113"/>
-      <c r="M81" s="113"/>
-      <c r="N81" s="113"/>
-      <c r="O81" s="113"/>
-      <c r="P81" s="113"/>
-      <c r="Q81" s="113"/>
-      <c r="R81" s="113"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="97"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="97"/>
+      <c r="J81" s="97"/>
+      <c r="K81" s="97"/>
+      <c r="L81" s="97"/>
+      <c r="M81" s="97"/>
+      <c r="N81" s="97"/>
+      <c r="O81" s="97"/>
+      <c r="P81" s="97"/>
+      <c r="Q81" s="97"/>
+      <c r="R81" s="97"/>
       <c r="S81" s="92"/>
       <c r="V81" s="60"/>
     </row>
@@ -9335,21 +9343,21 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="113"/>
-      <c r="E85" s="113"/>
-      <c r="F85" s="113"/>
-      <c r="G85" s="115"/>
-      <c r="H85" s="113"/>
-      <c r="I85" s="113"/>
-      <c r="J85" s="113"/>
-      <c r="K85" s="113"/>
-      <c r="L85" s="113"/>
-      <c r="M85" s="113"/>
-      <c r="N85" s="113"/>
-      <c r="O85" s="113"/>
-      <c r="P85" s="113"/>
-      <c r="Q85" s="113"/>
-      <c r="R85" s="113"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="97"/>
+      <c r="N85" s="97"/>
+      <c r="O85" s="97"/>
+      <c r="P85" s="97"/>
+      <c r="Q85" s="97"/>
+      <c r="R85" s="97"/>
       <c r="S85" s="92"/>
       <c r="V85" s="60"/>
     </row>
@@ -9418,21 +9426,21 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="113"/>
-      <c r="E89" s="113"/>
-      <c r="F89" s="113"/>
-      <c r="G89" s="113"/>
-      <c r="H89" s="113"/>
-      <c r="I89" s="113"/>
-      <c r="J89" s="113"/>
-      <c r="K89" s="113"/>
-      <c r="L89" s="113"/>
-      <c r="M89" s="113"/>
-      <c r="N89" s="113"/>
-      <c r="O89" s="113"/>
-      <c r="P89" s="113"/>
-      <c r="Q89" s="113"/>
-      <c r="R89" s="113"/>
+      <c r="D89" s="97"/>
+      <c r="E89" s="97"/>
+      <c r="F89" s="97"/>
+      <c r="G89" s="97"/>
+      <c r="H89" s="97"/>
+      <c r="I89" s="97"/>
+      <c r="J89" s="97"/>
+      <c r="K89" s="97"/>
+      <c r="L89" s="97"/>
+      <c r="M89" s="97"/>
+      <c r="N89" s="97"/>
+      <c r="O89" s="97"/>
+      <c r="P89" s="97"/>
+      <c r="Q89" s="97"/>
+      <c r="R89" s="97"/>
       <c r="S89" s="92"/>
       <c r="V89" s="60"/>
     </row>
@@ -9501,21 +9509,21 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="113"/>
-      <c r="E93" s="113"/>
-      <c r="F93" s="113"/>
-      <c r="G93" s="113"/>
-      <c r="H93" s="113"/>
-      <c r="I93" s="113"/>
-      <c r="J93" s="113"/>
-      <c r="K93" s="113"/>
-      <c r="L93" s="113"/>
-      <c r="M93" s="113"/>
-      <c r="N93" s="113"/>
-      <c r="O93" s="113"/>
-      <c r="P93" s="113"/>
-      <c r="Q93" s="113"/>
-      <c r="R93" s="113"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="97"/>
+      <c r="I93" s="97"/>
+      <c r="J93" s="97"/>
+      <c r="K93" s="97"/>
+      <c r="L93" s="97"/>
+      <c r="M93" s="97"/>
+      <c r="N93" s="97"/>
+      <c r="O93" s="97"/>
+      <c r="P93" s="97"/>
+      <c r="Q93" s="97"/>
+      <c r="R93" s="97"/>
       <c r="S93" s="92"/>
       <c r="V93" s="60"/>
     </row>
@@ -9584,21 +9592,21 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="113"/>
-      <c r="E97" s="113"/>
-      <c r="F97" s="113"/>
-      <c r="G97" s="115"/>
-      <c r="H97" s="113"/>
-      <c r="I97" s="113"/>
-      <c r="J97" s="113"/>
-      <c r="K97" s="113"/>
-      <c r="L97" s="113"/>
-      <c r="M97" s="113"/>
-      <c r="N97" s="113"/>
-      <c r="O97" s="113"/>
-      <c r="P97" s="113"/>
-      <c r="Q97" s="113"/>
-      <c r="R97" s="113"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="98"/>
+      <c r="H97" s="97"/>
+      <c r="I97" s="97"/>
+      <c r="J97" s="97"/>
+      <c r="K97" s="97"/>
+      <c r="L97" s="97"/>
+      <c r="M97" s="97"/>
+      <c r="N97" s="97"/>
+      <c r="O97" s="97"/>
+      <c r="P97" s="97"/>
+      <c r="Q97" s="97"/>
+      <c r="R97" s="97"/>
       <c r="S97" s="92"/>
       <c r="V97" s="60"/>
     </row>
@@ -9667,21 +9675,21 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="113"/>
-      <c r="E101" s="113"/>
-      <c r="F101" s="113"/>
-      <c r="G101" s="113"/>
-      <c r="H101" s="113"/>
-      <c r="I101" s="113"/>
-      <c r="J101" s="113"/>
-      <c r="K101" s="113"/>
-      <c r="L101" s="113"/>
-      <c r="M101" s="113"/>
-      <c r="N101" s="113"/>
-      <c r="O101" s="113"/>
-      <c r="P101" s="113"/>
-      <c r="Q101" s="113"/>
-      <c r="R101" s="113"/>
+      <c r="D101" s="97"/>
+      <c r="E101" s="97"/>
+      <c r="F101" s="97"/>
+      <c r="G101" s="97"/>
+      <c r="H101" s="97"/>
+      <c r="I101" s="97"/>
+      <c r="J101" s="97"/>
+      <c r="K101" s="97"/>
+      <c r="L101" s="97"/>
+      <c r="M101" s="97"/>
+      <c r="N101" s="97"/>
+      <c r="O101" s="97"/>
+      <c r="P101" s="97"/>
+      <c r="Q101" s="97"/>
+      <c r="R101" s="97"/>
       <c r="S101" s="92"/>
       <c r="V101" s="60"/>
     </row>
@@ -9750,21 +9758,21 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="113"/>
-      <c r="E105" s="113"/>
-      <c r="F105" s="113"/>
-      <c r="G105" s="115"/>
-      <c r="H105" s="113"/>
-      <c r="I105" s="113"/>
-      <c r="J105" s="113"/>
-      <c r="K105" s="113"/>
-      <c r="L105" s="113"/>
-      <c r="M105" s="113"/>
-      <c r="N105" s="113"/>
-      <c r="O105" s="116"/>
-      <c r="P105" s="113"/>
-      <c r="Q105" s="113"/>
-      <c r="R105" s="113"/>
+      <c r="D105" s="97"/>
+      <c r="E105" s="97"/>
+      <c r="F105" s="97"/>
+      <c r="G105" s="98"/>
+      <c r="H105" s="97"/>
+      <c r="I105" s="97"/>
+      <c r="J105" s="97"/>
+      <c r="K105" s="97"/>
+      <c r="L105" s="97"/>
+      <c r="M105" s="97"/>
+      <c r="N105" s="97"/>
+      <c r="O105" s="99"/>
+      <c r="P105" s="97"/>
+      <c r="Q105" s="97"/>
+      <c r="R105" s="97"/>
       <c r="S105" s="92"/>
       <c r="V105" s="60"/>
     </row>
@@ -9833,21 +9841,21 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="113"/>
-      <c r="E109" s="113"/>
-      <c r="F109" s="113"/>
-      <c r="G109" s="113"/>
-      <c r="H109" s="113"/>
-      <c r="I109" s="113"/>
-      <c r="J109" s="113"/>
-      <c r="K109" s="113"/>
-      <c r="L109" s="113"/>
-      <c r="M109" s="113"/>
-      <c r="N109" s="113"/>
-      <c r="O109" s="113"/>
-      <c r="P109" s="113"/>
-      <c r="Q109" s="113"/>
-      <c r="R109" s="113"/>
+      <c r="D109" s="97"/>
+      <c r="E109" s="97"/>
+      <c r="F109" s="97"/>
+      <c r="G109" s="97"/>
+      <c r="H109" s="97"/>
+      <c r="I109" s="97"/>
+      <c r="J109" s="97"/>
+      <c r="K109" s="97"/>
+      <c r="L109" s="97"/>
+      <c r="M109" s="97"/>
+      <c r="N109" s="97"/>
+      <c r="O109" s="97"/>
+      <c r="P109" s="97"/>
+      <c r="Q109" s="97"/>
+      <c r="R109" s="97"/>
       <c r="S109" s="92"/>
       <c r="V109" s="60"/>
     </row>
@@ -9916,21 +9924,21 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
-      <c r="G113" s="113"/>
-      <c r="H113" s="113"/>
-      <c r="I113" s="113"/>
-      <c r="J113" s="113"/>
-      <c r="K113" s="113"/>
-      <c r="L113" s="113"/>
-      <c r="M113" s="113"/>
-      <c r="N113" s="113"/>
-      <c r="O113" s="116"/>
-      <c r="P113" s="113"/>
-      <c r="Q113" s="113"/>
-      <c r="R113" s="113"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="97"/>
+      <c r="F113" s="97"/>
+      <c r="G113" s="97"/>
+      <c r="H113" s="97"/>
+      <c r="I113" s="97"/>
+      <c r="J113" s="97"/>
+      <c r="K113" s="97"/>
+      <c r="L113" s="97"/>
+      <c r="M113" s="97"/>
+      <c r="N113" s="97"/>
+      <c r="O113" s="99"/>
+      <c r="P113" s="97"/>
+      <c r="Q113" s="97"/>
+      <c r="R113" s="97"/>
       <c r="S113" s="92"/>
       <c r="V113" s="60"/>
     </row>
@@ -9999,21 +10007,21 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="113"/>
-      <c r="E117" s="113"/>
-      <c r="F117" s="115"/>
-      <c r="G117" s="115"/>
-      <c r="H117" s="113"/>
-      <c r="I117" s="113"/>
-      <c r="J117" s="113"/>
-      <c r="K117" s="113"/>
-      <c r="L117" s="113"/>
-      <c r="M117" s="113"/>
-      <c r="N117" s="113"/>
-      <c r="O117" s="113"/>
-      <c r="P117" s="113"/>
-      <c r="Q117" s="113"/>
-      <c r="R117" s="113"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="98"/>
+      <c r="H117" s="97"/>
+      <c r="I117" s="97"/>
+      <c r="J117" s="97"/>
+      <c r="K117" s="97"/>
+      <c r="L117" s="97"/>
+      <c r="M117" s="97"/>
+      <c r="N117" s="97"/>
+      <c r="O117" s="97"/>
+      <c r="P117" s="97"/>
+      <c r="Q117" s="97"/>
+      <c r="R117" s="97"/>
       <c r="S117" s="92"/>
       <c r="V117" s="60"/>
     </row>
@@ -10082,21 +10090,21 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="113"/>
-      <c r="E121" s="113"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="115"/>
-      <c r="H121" s="113"/>
-      <c r="I121" s="113"/>
-      <c r="J121" s="113"/>
-      <c r="K121" s="113"/>
-      <c r="L121" s="113"/>
-      <c r="M121" s="113"/>
-      <c r="N121" s="113"/>
-      <c r="O121" s="113"/>
-      <c r="P121" s="113"/>
-      <c r="Q121" s="113"/>
-      <c r="R121" s="113"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="97"/>
+      <c r="F121" s="97"/>
+      <c r="G121" s="98"/>
+      <c r="H121" s="97"/>
+      <c r="I121" s="97"/>
+      <c r="J121" s="97"/>
+      <c r="K121" s="97"/>
+      <c r="L121" s="97"/>
+      <c r="M121" s="97"/>
+      <c r="N121" s="97"/>
+      <c r="O121" s="97"/>
+      <c r="P121" s="97"/>
+      <c r="Q121" s="97"/>
+      <c r="R121" s="97"/>
       <c r="S121" s="92"/>
       <c r="V121" s="60"/>
     </row>
@@ -10165,21 +10173,21 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="115"/>
-      <c r="H125" s="113"/>
-      <c r="I125" s="113"/>
-      <c r="J125" s="113"/>
-      <c r="K125" s="113"/>
-      <c r="L125" s="113"/>
-      <c r="M125" s="113"/>
-      <c r="N125" s="113"/>
-      <c r="O125" s="113"/>
-      <c r="P125" s="113"/>
-      <c r="Q125" s="113"/>
-      <c r="R125" s="113"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="97"/>
+      <c r="F125" s="97"/>
+      <c r="G125" s="98"/>
+      <c r="H125" s="97"/>
+      <c r="I125" s="97"/>
+      <c r="J125" s="97"/>
+      <c r="K125" s="97"/>
+      <c r="L125" s="97"/>
+      <c r="M125" s="97"/>
+      <c r="N125" s="97"/>
+      <c r="O125" s="97"/>
+      <c r="P125" s="97"/>
+      <c r="Q125" s="97"/>
+      <c r="R125" s="97"/>
       <c r="S125" s="92"/>
       <c r="V125" s="60"/>
     </row>
@@ -10248,21 +10256,21 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="113"/>
-      <c r="E129" s="113"/>
-      <c r="F129" s="113"/>
-      <c r="G129" s="113"/>
-      <c r="H129" s="113"/>
-      <c r="I129" s="113"/>
-      <c r="J129" s="113"/>
-      <c r="K129" s="113"/>
-      <c r="L129" s="117"/>
-      <c r="M129" s="113"/>
-      <c r="N129" s="113"/>
-      <c r="O129" s="113"/>
-      <c r="P129" s="113"/>
-      <c r="Q129" s="113"/>
-      <c r="R129" s="113"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="97"/>
+      <c r="F129" s="97"/>
+      <c r="G129" s="97"/>
+      <c r="H129" s="97"/>
+      <c r="I129" s="97"/>
+      <c r="J129" s="97"/>
+      <c r="K129" s="97"/>
+      <c r="L129" s="107"/>
+      <c r="M129" s="97"/>
+      <c r="N129" s="97"/>
+      <c r="O129" s="97"/>
+      <c r="P129" s="97"/>
+      <c r="Q129" s="97"/>
+      <c r="R129" s="97"/>
       <c r="S129" s="92"/>
       <c r="V129" s="60"/>
     </row>
@@ -10331,21 +10339,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
-      <c r="F133" s="113"/>
-      <c r="G133" s="115"/>
-      <c r="H133" s="113"/>
-      <c r="I133" s="113"/>
-      <c r="J133" s="113"/>
-      <c r="K133" s="113"/>
-      <c r="L133" s="113"/>
-      <c r="M133" s="113"/>
-      <c r="N133" s="113"/>
-      <c r="O133" s="113"/>
-      <c r="P133" s="113"/>
-      <c r="Q133" s="113"/>
-      <c r="R133" s="113"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="98"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="97"/>
+      <c r="J133" s="97"/>
+      <c r="K133" s="97"/>
+      <c r="L133" s="97"/>
+      <c r="M133" s="97"/>
+      <c r="N133" s="97"/>
+      <c r="O133" s="97"/>
+      <c r="P133" s="97"/>
+      <c r="Q133" s="97"/>
+      <c r="R133" s="97"/>
       <c r="S133" s="92"/>
       <c r="V133" s="60"/>
     </row>
@@ -10414,21 +10422,21 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="113"/>
-      <c r="E137" s="113"/>
-      <c r="F137" s="113"/>
-      <c r="G137" s="113"/>
-      <c r="H137" s="113"/>
-      <c r="I137" s="113"/>
-      <c r="J137" s="113"/>
-      <c r="K137" s="113"/>
-      <c r="L137" s="113"/>
-      <c r="M137" s="113"/>
-      <c r="N137" s="113"/>
-      <c r="O137" s="113"/>
-      <c r="P137" s="113"/>
-      <c r="Q137" s="113"/>
-      <c r="R137" s="113"/>
+      <c r="D137" s="97"/>
+      <c r="E137" s="97"/>
+      <c r="F137" s="97"/>
+      <c r="G137" s="97"/>
+      <c r="H137" s="97"/>
+      <c r="I137" s="97"/>
+      <c r="J137" s="97"/>
+      <c r="K137" s="97"/>
+      <c r="L137" s="97"/>
+      <c r="M137" s="97"/>
+      <c r="N137" s="97"/>
+      <c r="O137" s="97"/>
+      <c r="P137" s="97"/>
+      <c r="Q137" s="97"/>
+      <c r="R137" s="97"/>
       <c r="S137" s="92"/>
       <c r="V137" s="60"/>
     </row>
@@ -10497,21 +10505,21 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="113"/>
-      <c r="E141" s="113"/>
-      <c r="F141" s="113"/>
-      <c r="G141" s="115"/>
-      <c r="H141" s="113"/>
-      <c r="I141" s="113"/>
-      <c r="J141" s="113"/>
-      <c r="K141" s="113"/>
-      <c r="L141" s="113"/>
-      <c r="M141" s="113"/>
-      <c r="N141" s="113"/>
-      <c r="O141" s="113"/>
-      <c r="P141" s="113"/>
-      <c r="Q141" s="113"/>
-      <c r="R141" s="113"/>
+      <c r="D141" s="97"/>
+      <c r="E141" s="97"/>
+      <c r="F141" s="97"/>
+      <c r="G141" s="98"/>
+      <c r="H141" s="97"/>
+      <c r="I141" s="97"/>
+      <c r="J141" s="97"/>
+      <c r="K141" s="97"/>
+      <c r="L141" s="97"/>
+      <c r="M141" s="97"/>
+      <c r="N141" s="97"/>
+      <c r="O141" s="97"/>
+      <c r="P141" s="97"/>
+      <c r="Q141" s="97"/>
+      <c r="R141" s="97"/>
       <c r="S141" s="92"/>
       <c r="V141" s="60"/>
     </row>
@@ -10580,21 +10588,21 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="113"/>
-      <c r="E145" s="113"/>
-      <c r="F145" s="113"/>
-      <c r="G145" s="115"/>
-      <c r="H145" s="113"/>
-      <c r="I145" s="113"/>
-      <c r="J145" s="113"/>
-      <c r="K145" s="113"/>
-      <c r="L145" s="113"/>
-      <c r="M145" s="113"/>
-      <c r="N145" s="113"/>
-      <c r="O145" s="113"/>
-      <c r="P145" s="113"/>
-      <c r="Q145" s="113"/>
-      <c r="R145" s="113"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="98"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
+      <c r="J145" s="97"/>
+      <c r="K145" s="97"/>
+      <c r="L145" s="97"/>
+      <c r="M145" s="97"/>
+      <c r="N145" s="97"/>
+      <c r="O145" s="97"/>
+      <c r="P145" s="97"/>
+      <c r="Q145" s="97"/>
+      <c r="R145" s="97"/>
       <c r="S145" s="92"/>
       <c r="V145" s="60"/>
     </row>
@@ -10663,21 +10671,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="113"/>
-      <c r="E149" s="113"/>
-      <c r="F149" s="113"/>
-      <c r="G149" s="113"/>
-      <c r="H149" s="113"/>
-      <c r="I149" s="113"/>
-      <c r="J149" s="113"/>
-      <c r="K149" s="113"/>
-      <c r="L149" s="113"/>
-      <c r="M149" s="113"/>
-      <c r="N149" s="113"/>
-      <c r="O149" s="113"/>
-      <c r="P149" s="113"/>
-      <c r="Q149" s="113"/>
-      <c r="R149" s="113"/>
+      <c r="D149" s="97"/>
+      <c r="E149" s="97"/>
+      <c r="F149" s="97"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="97"/>
+      <c r="I149" s="97"/>
+      <c r="J149" s="97"/>
+      <c r="K149" s="97"/>
+      <c r="L149" s="97"/>
+      <c r="M149" s="97"/>
+      <c r="N149" s="97"/>
+      <c r="O149" s="97"/>
+      <c r="P149" s="97"/>
+      <c r="Q149" s="97"/>
+      <c r="R149" s="97"/>
       <c r="S149" s="92"/>
       <c r="V149" s="60"/>
     </row>
@@ -10746,21 +10754,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="113"/>
-      <c r="E153" s="113"/>
-      <c r="F153" s="113"/>
-      <c r="G153" s="113"/>
-      <c r="H153" s="113"/>
-      <c r="I153" s="113"/>
-      <c r="J153" s="113"/>
-      <c r="K153" s="113"/>
-      <c r="L153" s="113"/>
-      <c r="M153" s="113"/>
-      <c r="N153" s="113"/>
-      <c r="O153" s="113"/>
-      <c r="P153" s="113"/>
-      <c r="Q153" s="113"/>
-      <c r="R153" s="113"/>
+      <c r="D153" s="97"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="97"/>
+      <c r="I153" s="97"/>
+      <c r="J153" s="97"/>
+      <c r="K153" s="97"/>
+      <c r="L153" s="97"/>
+      <c r="M153" s="97"/>
+      <c r="N153" s="97"/>
+      <c r="O153" s="97"/>
+      <c r="P153" s="97"/>
+      <c r="Q153" s="97"/>
+      <c r="R153" s="97"/>
       <c r="S153" s="92"/>
       <c r="V153" s="60"/>
     </row>
@@ -10829,21 +10837,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="113"/>
-      <c r="E157" s="113"/>
-      <c r="F157" s="113"/>
-      <c r="G157" s="113"/>
-      <c r="H157" s="113"/>
-      <c r="I157" s="113"/>
-      <c r="J157" s="113"/>
-      <c r="K157" s="113"/>
-      <c r="L157" s="113"/>
-      <c r="M157" s="113"/>
-      <c r="N157" s="113"/>
-      <c r="O157" s="113"/>
-      <c r="P157" s="113"/>
-      <c r="Q157" s="113"/>
-      <c r="R157" s="113"/>
+      <c r="D157" s="97"/>
+      <c r="E157" s="97"/>
+      <c r="F157" s="97"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
+      <c r="I157" s="97"/>
+      <c r="J157" s="97"/>
+      <c r="K157" s="97"/>
+      <c r="L157" s="97"/>
+      <c r="M157" s="97"/>
+      <c r="N157" s="97"/>
+      <c r="O157" s="97"/>
+      <c r="P157" s="97"/>
+      <c r="Q157" s="97"/>
+      <c r="R157" s="97"/>
       <c r="S157" s="92"/>
       <c r="V157" s="60"/>
     </row>
@@ -10912,21 +10920,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="113"/>
-      <c r="E161" s="113"/>
-      <c r="F161" s="113"/>
-      <c r="G161" s="113"/>
-      <c r="H161" s="113"/>
-      <c r="I161" s="113"/>
-      <c r="J161" s="113"/>
-      <c r="K161" s="113"/>
-      <c r="L161" s="113"/>
-      <c r="M161" s="113"/>
-      <c r="N161" s="113"/>
-      <c r="O161" s="113"/>
-      <c r="P161" s="113"/>
-      <c r="Q161" s="113"/>
-      <c r="R161" s="113"/>
+      <c r="D161" s="97"/>
+      <c r="E161" s="97"/>
+      <c r="F161" s="97"/>
+      <c r="G161" s="97"/>
+      <c r="H161" s="97"/>
+      <c r="I161" s="97"/>
+      <c r="J161" s="97"/>
+      <c r="K161" s="97"/>
+      <c r="L161" s="97"/>
+      <c r="M161" s="97"/>
+      <c r="N161" s="97"/>
+      <c r="O161" s="97"/>
+      <c r="P161" s="97"/>
+      <c r="Q161" s="97"/>
+      <c r="R161" s="97"/>
       <c r="S161" s="92"/>
       <c r="V161" s="60"/>
     </row>
@@ -10995,21 +11003,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="113"/>
-      <c r="E165" s="113"/>
-      <c r="F165" s="113"/>
-      <c r="G165" s="113"/>
-      <c r="H165" s="113"/>
-      <c r="I165" s="113"/>
-      <c r="J165" s="113"/>
-      <c r="K165" s="113"/>
-      <c r="L165" s="113"/>
-      <c r="M165" s="113"/>
-      <c r="N165" s="113"/>
-      <c r="O165" s="113"/>
-      <c r="P165" s="113"/>
-      <c r="Q165" s="113"/>
-      <c r="R165" s="113"/>
+      <c r="D165" s="97"/>
+      <c r="E165" s="97"/>
+      <c r="F165" s="97"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="97"/>
+      <c r="I165" s="97"/>
+      <c r="J165" s="97"/>
+      <c r="K165" s="97"/>
+      <c r="L165" s="97"/>
+      <c r="M165" s="97"/>
+      <c r="N165" s="97"/>
+      <c r="O165" s="97"/>
+      <c r="P165" s="97"/>
+      <c r="Q165" s="97"/>
+      <c r="R165" s="97"/>
       <c r="S165" s="92"/>
       <c r="V165" s="60"/>
     </row>
@@ -11077,21 +11085,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="1"/>
-      <c r="D169" s="113"/>
-      <c r="E169" s="113"/>
-      <c r="F169" s="113"/>
-      <c r="G169" s="113"/>
-      <c r="H169" s="113"/>
-      <c r="I169" s="113"/>
-      <c r="J169" s="113"/>
-      <c r="K169" s="113"/>
-      <c r="L169" s="113"/>
-      <c r="M169" s="113"/>
-      <c r="N169" s="113"/>
-      <c r="O169" s="113"/>
-      <c r="P169" s="113"/>
-      <c r="Q169" s="113"/>
-      <c r="R169" s="113"/>
+      <c r="D169" s="97"/>
+      <c r="E169" s="97"/>
+      <c r="F169" s="97"/>
+      <c r="G169" s="97"/>
+      <c r="H169" s="97"/>
+      <c r="I169" s="97"/>
+      <c r="J169" s="97"/>
+      <c r="K169" s="97"/>
+      <c r="L169" s="97"/>
+      <c r="M169" s="97"/>
+      <c r="N169" s="97"/>
+      <c r="O169" s="97"/>
+      <c r="P169" s="97"/>
+      <c r="Q169" s="97"/>
+      <c r="R169" s="97"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="58"/>
@@ -11156,21 +11164,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="113"/>
-      <c r="E173" s="113"/>
-      <c r="F173" s="113"/>
-      <c r="G173" s="115"/>
-      <c r="H173" s="113"/>
-      <c r="I173" s="113"/>
-      <c r="J173" s="113"/>
-      <c r="K173" s="113"/>
-      <c r="L173" s="113"/>
-      <c r="M173" s="113"/>
-      <c r="N173" s="113"/>
-      <c r="O173" s="113"/>
-      <c r="P173" s="113"/>
-      <c r="Q173" s="113"/>
-      <c r="R173" s="113"/>
+      <c r="D173" s="97"/>
+      <c r="E173" s="97"/>
+      <c r="F173" s="97"/>
+      <c r="G173" s="98"/>
+      <c r="H173" s="97"/>
+      <c r="I173" s="97"/>
+      <c r="J173" s="97"/>
+      <c r="K173" s="97"/>
+      <c r="L173" s="97"/>
+      <c r="M173" s="97"/>
+      <c r="N173" s="97"/>
+      <c r="O173" s="97"/>
+      <c r="P173" s="97"/>
+      <c r="Q173" s="97"/>
+      <c r="R173" s="97"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="58"/>
@@ -11235,21 +11243,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="113"/>
-      <c r="E177" s="113"/>
-      <c r="F177" s="113"/>
-      <c r="G177" s="113"/>
-      <c r="H177" s="113"/>
-      <c r="I177" s="113"/>
-      <c r="J177" s="113"/>
-      <c r="K177" s="113"/>
-      <c r="L177" s="113"/>
-      <c r="M177" s="113"/>
-      <c r="N177" s="113"/>
-      <c r="O177" s="113"/>
-      <c r="P177" s="113"/>
-      <c r="Q177" s="113"/>
-      <c r="R177" s="113"/>
+      <c r="D177" s="97"/>
+      <c r="E177" s="97"/>
+      <c r="F177" s="97"/>
+      <c r="G177" s="97"/>
+      <c r="H177" s="97"/>
+      <c r="I177" s="97"/>
+      <c r="J177" s="97"/>
+      <c r="K177" s="97"/>
+      <c r="L177" s="97"/>
+      <c r="M177" s="97"/>
+      <c r="N177" s="97"/>
+      <c r="O177" s="97"/>
+      <c r="P177" s="97"/>
+      <c r="Q177" s="97"/>
+      <c r="R177" s="97"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="58"/>
@@ -11314,21 +11322,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="113"/>
-      <c r="E181" s="113"/>
-      <c r="F181" s="113"/>
-      <c r="G181" s="115"/>
-      <c r="H181" s="113"/>
-      <c r="I181" s="113"/>
-      <c r="J181" s="113"/>
-      <c r="K181" s="113"/>
-      <c r="L181" s="113"/>
-      <c r="M181" s="113"/>
-      <c r="N181" s="113"/>
-      <c r="O181" s="113"/>
-      <c r="P181" s="113"/>
-      <c r="Q181" s="113"/>
-      <c r="R181" s="113"/>
+      <c r="D181" s="97"/>
+      <c r="E181" s="97"/>
+      <c r="F181" s="97"/>
+      <c r="G181" s="98"/>
+      <c r="H181" s="97"/>
+      <c r="I181" s="97"/>
+      <c r="J181" s="97"/>
+      <c r="K181" s="97"/>
+      <c r="L181" s="97"/>
+      <c r="M181" s="97"/>
+      <c r="N181" s="97"/>
+      <c r="O181" s="97"/>
+      <c r="P181" s="97"/>
+      <c r="Q181" s="97"/>
+      <c r="R181" s="97"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
@@ -11393,21 +11401,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="113"/>
-      <c r="E185" s="113"/>
-      <c r="F185" s="113"/>
-      <c r="G185" s="113"/>
-      <c r="H185" s="113"/>
-      <c r="I185" s="113"/>
-      <c r="J185" s="113"/>
-      <c r="K185" s="113"/>
-      <c r="L185" s="113"/>
-      <c r="M185" s="113"/>
-      <c r="N185" s="113"/>
-      <c r="O185" s="113"/>
-      <c r="P185" s="113"/>
-      <c r="Q185" s="113"/>
-      <c r="R185" s="113"/>
+      <c r="D185" s="97"/>
+      <c r="E185" s="97"/>
+      <c r="F185" s="97"/>
+      <c r="G185" s="97"/>
+      <c r="H185" s="97"/>
+      <c r="I185" s="97"/>
+      <c r="J185" s="97"/>
+      <c r="K185" s="97"/>
+      <c r="L185" s="97"/>
+      <c r="M185" s="97"/>
+      <c r="N185" s="97"/>
+      <c r="O185" s="97"/>
+      <c r="P185" s="97"/>
+      <c r="Q185" s="97"/>
+      <c r="R185" s="97"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="58"/>
@@ -11472,21 +11480,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="1"/>
-      <c r="D189" s="113"/>
-      <c r="E189" s="113"/>
-      <c r="F189" s="113"/>
-      <c r="G189" s="113"/>
-      <c r="H189" s="113"/>
-      <c r="I189" s="113"/>
-      <c r="J189" s="113"/>
-      <c r="K189" s="113"/>
-      <c r="L189" s="113"/>
-      <c r="M189" s="113"/>
-      <c r="N189" s="113"/>
-      <c r="O189" s="113"/>
-      <c r="P189" s="113"/>
-      <c r="Q189" s="113"/>
-      <c r="R189" s="113"/>
+      <c r="D189" s="97"/>
+      <c r="E189" s="97"/>
+      <c r="F189" s="97"/>
+      <c r="G189" s="97"/>
+      <c r="H189" s="97"/>
+      <c r="I189" s="97"/>
+      <c r="J189" s="97"/>
+      <c r="K189" s="97"/>
+      <c r="L189" s="97"/>
+      <c r="M189" s="97"/>
+      <c r="N189" s="97"/>
+      <c r="O189" s="97"/>
+      <c r="P189" s="97"/>
+      <c r="Q189" s="97"/>
+      <c r="R189" s="97"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
@@ -11551,21 +11559,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="113"/>
-      <c r="E193" s="113"/>
-      <c r="F193" s="113"/>
-      <c r="G193" s="115"/>
-      <c r="H193" s="113"/>
-      <c r="I193" s="113"/>
-      <c r="J193" s="113"/>
-      <c r="K193" s="113"/>
-      <c r="L193" s="113"/>
-      <c r="M193" s="113"/>
-      <c r="N193" s="113"/>
-      <c r="O193" s="113"/>
-      <c r="P193" s="113"/>
-      <c r="Q193" s="113"/>
-      <c r="R193" s="113"/>
+      <c r="D193" s="97"/>
+      <c r="E193" s="97"/>
+      <c r="F193" s="97"/>
+      <c r="G193" s="98"/>
+      <c r="H193" s="97"/>
+      <c r="I193" s="97"/>
+      <c r="J193" s="97"/>
+      <c r="K193" s="97"/>
+      <c r="L193" s="97"/>
+      <c r="M193" s="97"/>
+      <c r="N193" s="97"/>
+      <c r="O193" s="97"/>
+      <c r="P193" s="97"/>
+      <c r="Q193" s="97"/>
+      <c r="R193" s="97"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="58"/>
@@ -11630,21 +11638,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="113"/>
-      <c r="E197" s="113"/>
-      <c r="F197" s="113"/>
-      <c r="G197" s="115"/>
-      <c r="H197" s="113"/>
-      <c r="I197" s="113"/>
-      <c r="J197" s="113"/>
-      <c r="K197" s="113"/>
-      <c r="L197" s="113"/>
-      <c r="M197" s="113"/>
-      <c r="N197" s="113"/>
-      <c r="O197" s="113"/>
-      <c r="P197" s="113"/>
-      <c r="Q197" s="113"/>
-      <c r="R197" s="113"/>
+      <c r="D197" s="97"/>
+      <c r="E197" s="97"/>
+      <c r="F197" s="97"/>
+      <c r="G197" s="98"/>
+      <c r="H197" s="97"/>
+      <c r="I197" s="97"/>
+      <c r="J197" s="97"/>
+      <c r="K197" s="97"/>
+      <c r="L197" s="97"/>
+      <c r="M197" s="97"/>
+      <c r="N197" s="97"/>
+      <c r="O197" s="97"/>
+      <c r="P197" s="97"/>
+      <c r="Q197" s="97"/>
+      <c r="R197" s="97"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
@@ -11709,21 +11717,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="1"/>
-      <c r="D201" s="113"/>
-      <c r="E201" s="113"/>
-      <c r="F201" s="113"/>
-      <c r="G201" s="115"/>
-      <c r="H201" s="113"/>
-      <c r="I201" s="113"/>
-      <c r="J201" s="113"/>
-      <c r="K201" s="113"/>
-      <c r="L201" s="113"/>
-      <c r="M201" s="113"/>
-      <c r="N201" s="113"/>
-      <c r="O201" s="113"/>
-      <c r="P201" s="113"/>
-      <c r="Q201" s="113"/>
-      <c r="R201" s="113"/>
+      <c r="D201" s="97"/>
+      <c r="E201" s="97"/>
+      <c r="F201" s="97"/>
+      <c r="G201" s="98"/>
+      <c r="H201" s="97"/>
+      <c r="I201" s="97"/>
+      <c r="J201" s="97"/>
+      <c r="K201" s="97"/>
+      <c r="L201" s="97"/>
+      <c r="M201" s="97"/>
+      <c r="N201" s="97"/>
+      <c r="O201" s="97"/>
+      <c r="P201" s="97"/>
+      <c r="Q201" s="97"/>
+      <c r="R201" s="97"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="58"/>
@@ -11788,21 +11796,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="113"/>
-      <c r="E205" s="113"/>
-      <c r="F205" s="113"/>
-      <c r="G205" s="115"/>
-      <c r="H205" s="113"/>
-      <c r="I205" s="113"/>
-      <c r="J205" s="113"/>
-      <c r="K205" s="113"/>
-      <c r="L205" s="113"/>
-      <c r="M205" s="113"/>
-      <c r="N205" s="113"/>
-      <c r="O205" s="113"/>
-      <c r="P205" s="113"/>
-      <c r="Q205" s="113"/>
-      <c r="R205" s="113"/>
+      <c r="D205" s="97"/>
+      <c r="E205" s="97"/>
+      <c r="F205" s="97"/>
+      <c r="G205" s="98"/>
+      <c r="H205" s="97"/>
+      <c r="I205" s="97"/>
+      <c r="J205" s="97"/>
+      <c r="K205" s="97"/>
+      <c r="L205" s="97"/>
+      <c r="M205" s="97"/>
+      <c r="N205" s="97"/>
+      <c r="O205" s="97"/>
+      <c r="P205" s="97"/>
+      <c r="Q205" s="97"/>
+      <c r="R205" s="97"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="58"/>
@@ -11867,21 +11875,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="113"/>
-      <c r="E209" s="113"/>
-      <c r="F209" s="113"/>
-      <c r="G209" s="115"/>
-      <c r="H209" s="113"/>
-      <c r="I209" s="113"/>
-      <c r="J209" s="113"/>
-      <c r="K209" s="113"/>
-      <c r="L209" s="113"/>
-      <c r="M209" s="113"/>
-      <c r="N209" s="113"/>
-      <c r="O209" s="113"/>
-      <c r="P209" s="113"/>
-      <c r="Q209" s="113"/>
-      <c r="R209" s="113"/>
+      <c r="D209" s="97"/>
+      <c r="E209" s="97"/>
+      <c r="F209" s="97"/>
+      <c r="G209" s="98"/>
+      <c r="H209" s="97"/>
+      <c r="I209" s="97"/>
+      <c r="J209" s="97"/>
+      <c r="K209" s="97"/>
+      <c r="L209" s="97"/>
+      <c r="M209" s="97"/>
+      <c r="N209" s="97"/>
+      <c r="O209" s="97"/>
+      <c r="P209" s="97"/>
+      <c r="Q209" s="97"/>
+      <c r="R209" s="97"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="58"/>
@@ -11946,21 +11954,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="1"/>
-      <c r="D213" s="113"/>
-      <c r="E213" s="113"/>
-      <c r="F213" s="113"/>
-      <c r="G213" s="115"/>
-      <c r="H213" s="113"/>
-      <c r="I213" s="113"/>
-      <c r="J213" s="113"/>
-      <c r="K213" s="113"/>
-      <c r="L213" s="113"/>
-      <c r="M213" s="113"/>
-      <c r="N213" s="113"/>
-      <c r="O213" s="113"/>
-      <c r="P213" s="113"/>
-      <c r="Q213" s="113"/>
-      <c r="R213" s="113"/>
+      <c r="D213" s="97"/>
+      <c r="E213" s="97"/>
+      <c r="F213" s="97"/>
+      <c r="G213" s="98"/>
+      <c r="H213" s="97"/>
+      <c r="I213" s="97"/>
+      <c r="J213" s="97"/>
+      <c r="K213" s="97"/>
+      <c r="L213" s="97"/>
+      <c r="M213" s="97"/>
+      <c r="N213" s="97"/>
+      <c r="O213" s="97"/>
+      <c r="P213" s="97"/>
+      <c r="Q213" s="97"/>
+      <c r="R213" s="97"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="58"/>
@@ -12025,21 +12033,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="1"/>
-      <c r="D217" s="113"/>
-      <c r="E217" s="113"/>
-      <c r="F217" s="113"/>
-      <c r="G217" s="115"/>
-      <c r="H217" s="113"/>
-      <c r="I217" s="113"/>
-      <c r="J217" s="113"/>
-      <c r="K217" s="113"/>
-      <c r="L217" s="113"/>
-      <c r="M217" s="113"/>
-      <c r="N217" s="113"/>
-      <c r="O217" s="113"/>
-      <c r="P217" s="113"/>
-      <c r="Q217" s="113"/>
-      <c r="R217" s="113"/>
+      <c r="D217" s="97"/>
+      <c r="E217" s="97"/>
+      <c r="F217" s="97"/>
+      <c r="G217" s="98"/>
+      <c r="H217" s="97"/>
+      <c r="I217" s="97"/>
+      <c r="J217" s="97"/>
+      <c r="K217" s="97"/>
+      <c r="L217" s="97"/>
+      <c r="M217" s="97"/>
+      <c r="N217" s="97"/>
+      <c r="O217" s="97"/>
+      <c r="P217" s="97"/>
+      <c r="Q217" s="97"/>
+      <c r="R217" s="97"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="58"/>
@@ -12104,21 +12112,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="1"/>
-      <c r="D221" s="113"/>
-      <c r="E221" s="113"/>
-      <c r="F221" s="113"/>
-      <c r="G221" s="115"/>
-      <c r="H221" s="113"/>
-      <c r="I221" s="113"/>
-      <c r="J221" s="113"/>
-      <c r="K221" s="113"/>
-      <c r="L221" s="113"/>
-      <c r="M221" s="113"/>
-      <c r="N221" s="113"/>
-      <c r="O221" s="113"/>
-      <c r="P221" s="113"/>
-      <c r="Q221" s="113"/>
-      <c r="R221" s="113"/>
+      <c r="D221" s="97"/>
+      <c r="E221" s="97"/>
+      <c r="F221" s="97"/>
+      <c r="G221" s="98"/>
+      <c r="H221" s="97"/>
+      <c r="I221" s="97"/>
+      <c r="J221" s="97"/>
+      <c r="K221" s="97"/>
+      <c r="L221" s="97"/>
+      <c r="M221" s="97"/>
+      <c r="N221" s="97"/>
+      <c r="O221" s="97"/>
+      <c r="P221" s="97"/>
+      <c r="Q221" s="97"/>
+      <c r="R221" s="97"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="58"/>
@@ -12183,21 +12191,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="1"/>
-      <c r="D225" s="113"/>
-      <c r="E225" s="113"/>
-      <c r="F225" s="113"/>
-      <c r="G225" s="115"/>
-      <c r="H225" s="113"/>
-      <c r="I225" s="113"/>
-      <c r="J225" s="113"/>
-      <c r="K225" s="113"/>
-      <c r="L225" s="113"/>
-      <c r="M225" s="113"/>
-      <c r="N225" s="113"/>
-      <c r="O225" s="113"/>
-      <c r="P225" s="113"/>
-      <c r="Q225" s="113"/>
-      <c r="R225" s="113"/>
+      <c r="D225" s="97"/>
+      <c r="E225" s="97"/>
+      <c r="F225" s="97"/>
+      <c r="G225" s="98"/>
+      <c r="H225" s="97"/>
+      <c r="I225" s="97"/>
+      <c r="J225" s="97"/>
+      <c r="K225" s="97"/>
+      <c r="L225" s="97"/>
+      <c r="M225" s="97"/>
+      <c r="N225" s="97"/>
+      <c r="O225" s="97"/>
+      <c r="P225" s="97"/>
+      <c r="Q225" s="97"/>
+      <c r="R225" s="97"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="58"/>
@@ -12262,21 +12270,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="1"/>
-      <c r="D229" s="113"/>
-      <c r="E229" s="113"/>
-      <c r="F229" s="113"/>
-      <c r="G229" s="115"/>
-      <c r="H229" s="113"/>
-      <c r="I229" s="113"/>
-      <c r="J229" s="113"/>
-      <c r="K229" s="113"/>
-      <c r="L229" s="113"/>
-      <c r="M229" s="113"/>
-      <c r="N229" s="113"/>
-      <c r="O229" s="113"/>
-      <c r="P229" s="113"/>
-      <c r="Q229" s="113"/>
-      <c r="R229" s="113"/>
+      <c r="D229" s="97"/>
+      <c r="E229" s="97"/>
+      <c r="F229" s="97"/>
+      <c r="G229" s="98"/>
+      <c r="H229" s="97"/>
+      <c r="I229" s="97"/>
+      <c r="J229" s="97"/>
+      <c r="K229" s="97"/>
+      <c r="L229" s="97"/>
+      <c r="M229" s="97"/>
+      <c r="N229" s="97"/>
+      <c r="O229" s="97"/>
+      <c r="P229" s="97"/>
+      <c r="Q229" s="97"/>
+      <c r="R229" s="97"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="58"/>
@@ -12341,21 +12349,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="1"/>
-      <c r="D233" s="113"/>
-      <c r="E233" s="113"/>
-      <c r="F233" s="113"/>
-      <c r="G233" s="115"/>
-      <c r="H233" s="113"/>
-      <c r="I233" s="113"/>
-      <c r="J233" s="113"/>
-      <c r="K233" s="113"/>
-      <c r="L233" s="113"/>
-      <c r="M233" s="113"/>
-      <c r="N233" s="113"/>
-      <c r="O233" s="113"/>
-      <c r="P233" s="113"/>
-      <c r="Q233" s="113"/>
-      <c r="R233" s="113"/>
+      <c r="D233" s="97"/>
+      <c r="E233" s="97"/>
+      <c r="F233" s="97"/>
+      <c r="G233" s="98"/>
+      <c r="H233" s="97"/>
+      <c r="I233" s="97"/>
+      <c r="J233" s="97"/>
+      <c r="K233" s="97"/>
+      <c r="L233" s="97"/>
+      <c r="M233" s="97"/>
+      <c r="N233" s="97"/>
+      <c r="O233" s="97"/>
+      <c r="P233" s="97"/>
+      <c r="Q233" s="97"/>
+      <c r="R233" s="97"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="58"/>
@@ -12420,21 +12428,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="1"/>
-      <c r="D237" s="113"/>
-      <c r="E237" s="113"/>
-      <c r="F237" s="113"/>
-      <c r="G237" s="115"/>
-      <c r="H237" s="113"/>
-      <c r="I237" s="113"/>
-      <c r="J237" s="113"/>
-      <c r="K237" s="113"/>
-      <c r="L237" s="113"/>
-      <c r="M237" s="113"/>
-      <c r="N237" s="113"/>
-      <c r="O237" s="113"/>
-      <c r="P237" s="113"/>
-      <c r="Q237" s="113"/>
-      <c r="R237" s="113"/>
+      <c r="D237" s="97"/>
+      <c r="E237" s="97"/>
+      <c r="F237" s="97"/>
+      <c r="G237" s="98"/>
+      <c r="H237" s="97"/>
+      <c r="I237" s="97"/>
+      <c r="J237" s="97"/>
+      <c r="K237" s="97"/>
+      <c r="L237" s="97"/>
+      <c r="M237" s="97"/>
+      <c r="N237" s="97"/>
+      <c r="O237" s="97"/>
+      <c r="P237" s="97"/>
+      <c r="Q237" s="97"/>
+      <c r="R237" s="97"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="58"/>
@@ -12499,21 +12507,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="1"/>
-      <c r="D241" s="113"/>
-      <c r="E241" s="113"/>
-      <c r="F241" s="113"/>
-      <c r="G241" s="115"/>
-      <c r="H241" s="113"/>
-      <c r="I241" s="113"/>
-      <c r="J241" s="113"/>
-      <c r="K241" s="113"/>
-      <c r="L241" s="113"/>
-      <c r="M241" s="113"/>
-      <c r="N241" s="113"/>
-      <c r="O241" s="113"/>
-      <c r="P241" s="113"/>
-      <c r="Q241" s="113"/>
-      <c r="R241" s="113"/>
+      <c r="D241" s="97"/>
+      <c r="E241" s="97"/>
+      <c r="F241" s="97"/>
+      <c r="G241" s="98"/>
+      <c r="H241" s="97"/>
+      <c r="I241" s="97"/>
+      <c r="J241" s="97"/>
+      <c r="K241" s="97"/>
+      <c r="L241" s="97"/>
+      <c r="M241" s="97"/>
+      <c r="N241" s="97"/>
+      <c r="O241" s="97"/>
+      <c r="P241" s="97"/>
+      <c r="Q241" s="97"/>
+      <c r="R241" s="97"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="58"/>
@@ -12737,6 +12745,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEE722D-1441-4169-98E5-2856541FAADB}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533DB46B-3B3B-4E92-ABBC-F317F6EF9408}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12751,7 +12787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A423E86-A5C1-4222-BCA3-005E9B6E10C2}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
@@ -12815,7 +12851,7 @@
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
-      <c r="V3" s="107" t="s">
+      <c r="V3" s="108" t="s">
         <v>205</v>
       </c>
     </row>
@@ -12857,7 +12893,7 @@
       <c r="Q4" s="82"/>
       <c r="R4" s="82"/>
       <c r="S4" s="91"/>
-      <c r="V4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -12899,7 +12935,7 @@
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
       <c r="S5" s="92"/>
-      <c r="V5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -12940,7 +12976,7 @@
       <c r="Q6" s="83"/>
       <c r="R6" s="83"/>
       <c r="S6" s="93"/>
-      <c r="V6" s="108"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -12961,7 +12997,7 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="108"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -12981,7 +13017,7 @@
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
       <c r="S8" s="91"/>
-      <c r="V8" s="108"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -13005,7 +13041,7 @@
       <c r="R9" s="97"/>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
-      <c r="V9" s="108"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -13025,7 +13061,7 @@
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
       <c r="S10" s="94"/>
-      <c r="V10" s="108"/>
+      <c r="V10" s="109"/>
       <c r="AA10" s="1" t="s">
         <v>182</v>
       </c>
@@ -13050,7 +13086,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
       <c r="R11" s="81"/>
-      <c r="V11" s="108"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -13094,7 +13130,7 @@
         <v>324</v>
       </c>
       <c r="S12" s="91"/>
-      <c r="V12" s="108"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -13147,7 +13183,7 @@
         <v>221</v>
       </c>
       <c r="S13" s="92"/>
-      <c r="V13" s="108"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -13191,7 +13227,7 @@
         <v>502</v>
       </c>
       <c r="S14" s="94"/>
-      <c r="V14" s="108"/>
+      <c r="V14" s="109"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -13211,7 +13247,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
-      <c r="V15" s="108"/>
+      <c r="V15" s="109"/>
       <c r="AC15" s="67" t="s">
         <v>182</v>
       </c>
@@ -13262,7 +13298,7 @@
         <v>285</v>
       </c>
       <c r="S16" s="91"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="109"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -13315,7 +13351,7 @@
         <v>226</v>
       </c>
       <c r="S17" s="92"/>
-      <c r="V17" s="108"/>
+      <c r="V17" s="109"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -13363,7 +13399,7 @@
         <v>507</v>
       </c>
       <c r="S18" s="94"/>
-      <c r="V18" s="108"/>
+      <c r="V18" s="109"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -13387,7 +13423,7 @@
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
-      <c r="V19" s="108"/>
+      <c r="V19" s="109"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -13431,7 +13467,7 @@
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
-      <c r="V20" s="108"/>
+      <c r="V20" s="109"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -13484,7 +13520,7 @@
         <v>216</v>
       </c>
       <c r="S21" s="92"/>
-      <c r="V21" s="108"/>
+      <c r="V21" s="109"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -13528,7 +13564,7 @@
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
-      <c r="V22" s="109"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -18717,7 +18753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2458CB-2FC9-452E-BF1F-EE89F77A8897}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
@@ -18781,7 +18817,7 @@
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
-      <c r="V3" s="107" t="s">
+      <c r="V3" s="108" t="s">
         <v>205</v>
       </c>
     </row>
@@ -18823,7 +18859,7 @@
       <c r="Q4" s="82"/>
       <c r="R4" s="82"/>
       <c r="S4" s="91"/>
-      <c r="V4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -18865,7 +18901,7 @@
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
       <c r="S5" s="92"/>
-      <c r="V5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -18906,7 +18942,7 @@
       <c r="Q6" s="83"/>
       <c r="R6" s="83"/>
       <c r="S6" s="93"/>
-      <c r="V6" s="108"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -18927,7 +18963,7 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="108"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -18947,7 +18983,7 @@
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
       <c r="S8" s="91"/>
-      <c r="V8" s="108"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -18971,7 +19007,7 @@
       <c r="R9" s="97"/>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
-      <c r="V9" s="108"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -18991,7 +19027,7 @@
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
       <c r="S10" s="94"/>
-      <c r="V10" s="108"/>
+      <c r="V10" s="109"/>
       <c r="AA10" s="1" t="s">
         <v>182</v>
       </c>
@@ -19016,7 +19052,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
       <c r="R11" s="81"/>
-      <c r="V11" s="108"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -19060,7 +19096,7 @@
         <v>324</v>
       </c>
       <c r="S12" s="91"/>
-      <c r="V12" s="108"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -19113,7 +19149,7 @@
         <v>221</v>
       </c>
       <c r="S13" s="92"/>
-      <c r="V13" s="108"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -19157,7 +19193,7 @@
         <v>354</v>
       </c>
       <c r="S14" s="94"/>
-      <c r="V14" s="108"/>
+      <c r="V14" s="109"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -19177,7 +19213,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
-      <c r="V15" s="108"/>
+      <c r="V15" s="109"/>
       <c r="AC15" s="67" t="s">
         <v>182</v>
       </c>
@@ -19228,7 +19264,7 @@
         <v>285</v>
       </c>
       <c r="S16" s="91"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="109"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -19281,7 +19317,7 @@
         <v>226</v>
       </c>
       <c r="S17" s="92"/>
-      <c r="V17" s="108"/>
+      <c r="V17" s="109"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -19329,7 +19365,7 @@
         <v>360</v>
       </c>
       <c r="S18" s="94"/>
-      <c r="V18" s="108"/>
+      <c r="V18" s="109"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -19353,7 +19389,7 @@
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
-      <c r="V19" s="108"/>
+      <c r="V19" s="109"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -19397,7 +19433,7 @@
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
-      <c r="V20" s="108"/>
+      <c r="V20" s="109"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -19450,7 +19486,7 @@
         <v>216</v>
       </c>
       <c r="S21" s="92"/>
-      <c r="V21" s="108"/>
+      <c r="V21" s="109"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -19494,7 +19530,7 @@
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
-      <c r="V22" s="109"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -24683,7 +24719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B639F640-A47F-4E5D-97CC-218D5DA42E2F}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
@@ -24747,7 +24783,7 @@
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
-      <c r="V3" s="107" t="s">
+      <c r="V3" s="108" t="s">
         <v>205</v>
       </c>
     </row>
@@ -24789,7 +24825,7 @@
       <c r="Q4" s="82"/>
       <c r="R4" s="82"/>
       <c r="S4" s="91"/>
-      <c r="V4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -24831,7 +24867,7 @@
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
       <c r="S5" s="92"/>
-      <c r="V5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -24872,7 +24908,7 @@
       <c r="Q6" s="83"/>
       <c r="R6" s="83"/>
       <c r="S6" s="93"/>
-      <c r="V6" s="108"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -24893,7 +24929,7 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="108"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -24913,7 +24949,7 @@
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
       <c r="S8" s="91"/>
-      <c r="V8" s="108"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -24937,7 +24973,7 @@
       <c r="R9" s="97"/>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
-      <c r="V9" s="108"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -24957,7 +24993,7 @@
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
       <c r="S10" s="94"/>
-      <c r="V10" s="108"/>
+      <c r="V10" s="109"/>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -24979,7 +25015,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
       <c r="R11" s="81"/>
-      <c r="V11" s="108"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -25023,7 +25059,7 @@
         <v>324</v>
       </c>
       <c r="S12" s="91"/>
-      <c r="V12" s="108"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -25076,7 +25112,7 @@
         <v>221</v>
       </c>
       <c r="S13" s="92"/>
-      <c r="V13" s="108"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -25120,7 +25156,7 @@
         <v>421</v>
       </c>
       <c r="S14" s="94"/>
-      <c r="V14" s="108"/>
+      <c r="V14" s="109"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -25140,7 +25176,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
-      <c r="V15" s="108"/>
+      <c r="V15" s="109"/>
       <c r="AC15" s="67" t="s">
         <v>182</v>
       </c>
@@ -25191,7 +25227,7 @@
         <v>285</v>
       </c>
       <c r="S16" s="91"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="109"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -25244,7 +25280,7 @@
         <v>226</v>
       </c>
       <c r="S17" s="92"/>
-      <c r="V17" s="108"/>
+      <c r="V17" s="109"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -25292,7 +25328,7 @@
         <v>427</v>
       </c>
       <c r="S18" s="94"/>
-      <c r="V18" s="108"/>
+      <c r="V18" s="109"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -25314,7 +25350,7 @@
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
-      <c r="V19" s="108"/>
+      <c r="V19" s="109"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -25358,7 +25394,7 @@
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
-      <c r="V20" s="108"/>
+      <c r="V20" s="109"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -25411,7 +25447,7 @@
         <v>216</v>
       </c>
       <c r="S21" s="92"/>
-      <c r="V21" s="108"/>
+      <c r="V21" s="109"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -25455,7 +25491,7 @@
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
-      <c r="V22" s="109"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -30642,7 +30678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C038C983-B125-4E67-81BB-FB3249D119F4}">
   <dimension ref="B2:R37"/>
   <sheetViews>
@@ -30699,7 +30735,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -30717,7 +30753,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="111" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -30742,7 +30778,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="111"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -30762,7 +30798,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="111"/>
+      <c r="I6" s="112"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -30784,7 +30820,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="111"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -30800,7 +30836,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="111"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -30822,7 +30858,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="111"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -30838,7 +30874,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="111"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -30860,7 +30896,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="111"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -30876,7 +30912,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="111"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -30898,7 +30934,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -30914,7 +30950,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="112"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -30937,7 +30973,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="111" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -30955,7 +30991,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="111" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -30979,7 +31015,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="111"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -30999,7 +31035,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="111"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -31019,7 +31055,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="111"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -31033,7 +31069,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="111"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -31053,7 +31089,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="111"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -31067,7 +31103,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="111"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -31087,7 +31123,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="111"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -31101,7 +31137,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="111"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -31121,7 +31157,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -31135,7 +31171,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="112"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
@@ -31354,7 +31390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3FADB1-5996-43FA-9088-1195345750BF}">
   <dimension ref="A2:Q30"/>
   <sheetViews>
@@ -31869,21 +31905,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E996769-E0A0-48CC-8CA4-0FCF71044A6B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>